--- a/Metadata/InstrumentMetadata.xlsx
+++ b/Metadata/InstrumentMetadata.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="50">
   <si>
     <t>Site</t>
   </si>
@@ -128,6 +128,48 @@
   <si>
     <t>Weather</t>
   </si>
+  <si>
+    <t>02379</t>
+  </si>
+  <si>
+    <t>02309</t>
+  </si>
+  <si>
+    <t>02380</t>
+  </si>
+  <si>
+    <t>02354</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>InstrumentID</t>
+  </si>
 </sst>
 </file>
 
@@ -194,7 +236,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="585">
+  <cellStyleXfs count="633">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -780,16 +822,66 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="585">
+  <cellStyles count="633">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1082,6 +1174,30 @@
     <cellStyle name="Followed Hyperlink" xfId="580" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="582" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="632" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1374,6 +1490,30 @@
     <cellStyle name="Hyperlink" xfId="579" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="581" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="631" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1703,12 +1843,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N114"/>
+  <dimension ref="A1:O114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A115" sqref="A115:XFD556"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1724,7 +1864,7 @@
     <col min="13" max="13" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1767,8 +1907,11 @@
       <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -1811,25 +1954,28 @@
       <c r="N2" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>14020114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2">
-        <v>41956</v>
+        <v>41957</v>
       </c>
       <c r="C3" s="3">
-        <v>0.45</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="D3" s="3">
-        <v>0.54236111111111118</v>
+        <v>0.68472222222222223</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
@@ -1840,14 +1986,14 @@
       <c r="I3" s="4">
         <v>1E-3</v>
       </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="4">
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
         <v>-0.05</v>
       </c>
       <c r="L3" s="4">
-        <v>-0.74</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4">
         <v>0</v>
@@ -1855,43 +2001,46 @@
       <c r="N3" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="4">
+        <v>14020114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2">
-        <v>41956</v>
+        <v>41961</v>
       </c>
       <c r="C4" s="3">
-        <v>0.45</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D4" s="3">
-        <v>0.54236111111111118</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G4" s="4">
-        <v>0.48399999999999999</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4">
-        <v>0.47399999999999998</v>
+        <v>0</v>
       </c>
       <c r="I4" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="5">
+        <v>-0.125</v>
       </c>
       <c r="L4" s="4">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4">
         <v>0</v>
@@ -1899,40 +2048,43 @@
       <c r="N4" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="4">
+        <v>14020114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2">
-        <v>41956</v>
+        <v>41963</v>
       </c>
       <c r="C5" s="3">
-        <v>0.45</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D5" s="3">
-        <v>0.54236111111111118</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G5" s="4">
-        <v>0.96599999999999997</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="I5" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="5">
+        <v>-0.125</v>
       </c>
       <c r="L5" s="4">
         <v>0</v>
@@ -1943,8 +2095,11 @@
       <c r="N5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" s="4">
+        <v>14020114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -1958,25 +2113,25 @@
         <v>0.54236111111111118</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G6" s="4">
-        <v>1.917</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>1.9350000000000001</v>
+        <v>0</v>
       </c>
       <c r="I6" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
       </c>
       <c r="K6" s="4">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L6" s="4">
         <v>-0.74</v>
@@ -1987,69 +2142,75 @@
       <c r="N6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="4">
+        <v>13390344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2">
-        <v>41956</v>
+        <v>41957</v>
       </c>
       <c r="C7" s="3">
-        <v>0.45</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="D7" s="3">
-        <v>0.54236111111111118</v>
+        <v>0.68472222222222223</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G7" s="4">
-        <v>3.0150000000000001</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>3.0289999999999999</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>-0.05</v>
       </c>
       <c r="L7" s="4">
-        <v>0</v>
+        <v>-0.73</v>
       </c>
       <c r="M7" s="4">
         <v>0</v>
       </c>
       <c r="N7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>13390344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2">
-        <v>41956</v>
+        <v>41961</v>
       </c>
       <c r="C8" s="3">
-        <v>0.45</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D8" s="3">
-        <v>0.54236111111111118</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -2058,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="5">
+        <v>-0.05</v>
       </c>
       <c r="L8" s="4">
         <v>0</v>
@@ -2075,40 +2236,43 @@
       <c r="N8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="4">
+        <v>13390344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>41956</v>
+        <v>41963</v>
       </c>
       <c r="C9" s="3">
-        <v>0.45</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D9" s="3">
-        <v>0.4916666666666667</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="4">
-        <v>-0.32500000000000001</v>
+        <v>0</v>
       </c>
       <c r="H9" s="4">
-        <v>-0.32500000000000001</v>
+        <v>0</v>
       </c>
       <c r="I9" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="5">
+        <v>-0.05</v>
       </c>
       <c r="L9" s="4">
         <v>0</v>
@@ -2119,43 +2283,46 @@
       <c r="N9" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="4">
+        <v>13390344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>41956</v>
+        <v>41961</v>
       </c>
       <c r="C10" s="3">
-        <v>0.45</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D10" s="3">
-        <v>0.4916666666666667</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G10" s="4">
-        <v>-0.28500000000000003</v>
+        <v>0</v>
       </c>
       <c r="H10" s="4">
-        <v>-0.28500000000000003</v>
+        <v>0</v>
       </c>
       <c r="I10" s="4">
         <v>0.01</v>
       </c>
-      <c r="J10" t="s">
-        <v>14</v>
+      <c r="J10" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K10" s="4">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="L10" s="4">
-        <v>0.22</v>
+        <v>-0.73</v>
       </c>
       <c r="M10" s="4">
         <v>0</v>
@@ -2163,43 +2330,46 @@
       <c r="N10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>41956</v>
+        <v>41963</v>
       </c>
       <c r="C11" s="3">
-        <v>0.45</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D11" s="3">
-        <v>0.4916666666666667</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G11" s="4">
-        <v>-0.22500000000000001</v>
+        <v>0</v>
       </c>
       <c r="H11" s="4">
-        <v>-0.22500000000000001</v>
+        <v>0</v>
       </c>
       <c r="I11" s="4">
         <v>0.01</v>
       </c>
-      <c r="J11" t="s">
-        <v>14</v>
+      <c r="J11" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K11" s="4">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <v>-0.16</v>
+        <v>-0.2</v>
+      </c>
+      <c r="L11" s="5">
+        <v>-0.73</v>
       </c>
       <c r="M11" s="4">
         <v>0</v>
@@ -2207,43 +2377,46 @@
       <c r="N11" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="2">
-        <v>41956</v>
+        <v>41961</v>
       </c>
       <c r="C12" s="3">
-        <v>0.45</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D12" s="3">
-        <v>0.4916666666666667</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G12" s="4">
-        <v>-0.155</v>
+        <v>0</v>
       </c>
       <c r="H12" s="4">
-        <v>-0.155</v>
+        <v>0</v>
       </c>
       <c r="I12" s="4">
         <v>0.01</v>
       </c>
-      <c r="J12" t="s">
-        <v>14</v>
+      <c r="J12" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="K12" s="4">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L12" s="4">
-        <v>0</v>
+        <v>-0.73</v>
       </c>
       <c r="M12" s="4">
         <v>0</v>
@@ -2251,43 +2424,46 @@
       <c r="N12" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>41956</v>
+        <v>41963</v>
       </c>
       <c r="C13" s="3">
-        <v>0.45</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D13" s="3">
-        <v>0.4916666666666667</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G13" s="4">
-        <v>-0.38500000000000001</v>
+        <v>0</v>
       </c>
       <c r="H13" s="4">
-        <v>-0.38500000000000001</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
         <v>0.01</v>
       </c>
-      <c r="J13" t="s">
-        <v>16</v>
+      <c r="J13" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="K13" s="4">
-        <v>0</v>
-      </c>
-      <c r="L13" s="4">
-        <v>-0.74</v>
+        <v>-0.05</v>
+      </c>
+      <c r="L13" s="5">
+        <v>-0.73</v>
       </c>
       <c r="M13" s="4">
         <v>0</v>
@@ -2295,8 +2471,11 @@
       <c r="N13" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -2307,31 +2486,31 @@
         <v>0.45</v>
       </c>
       <c r="D14" s="3">
-        <v>0.4916666666666667</v>
+        <v>0.54236111111111118</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G14" s="4">
-        <v>-0.33500000000000002</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="H14" s="4">
-        <v>-0.33500000000000002</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="I14" s="4">
         <v>0.01</v>
       </c>
-      <c r="J14" t="s">
-        <v>16</v>
+      <c r="J14" s="4">
+        <v>0</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
       </c>
       <c r="L14" s="4">
-        <v>-0.54</v>
+        <v>0.97</v>
       </c>
       <c r="M14" s="4">
         <v>0</v>
@@ -2339,43 +2518,46 @@
       <c r="N14" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>41956</v>
+        <v>41957</v>
       </c>
       <c r="C15" s="3">
-        <v>0.45</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="D15" s="3">
-        <v>0.4916666666666667</v>
+        <v>0.68472222222222223</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G15" s="4">
-        <v>-0.26500000000000001</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="H15" s="4">
-        <v>-0.26500000000000001</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="I15" s="4">
         <v>0.01</v>
       </c>
-      <c r="J15" t="s">
-        <v>16</v>
+      <c r="J15" s="4">
+        <v>0</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
       </c>
       <c r="L15" s="4">
-        <v>-0.9</v>
+        <v>0.98</v>
       </c>
       <c r="M15" s="4">
         <v>0</v>
@@ -2383,43 +2565,46 @@
       <c r="N15" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="2">
-        <v>41956</v>
+        <v>41961</v>
       </c>
       <c r="C16" s="3">
-        <v>0.45</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D16" s="3">
-        <v>0.4916666666666667</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G16" s="4">
-        <v>-0.155</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="H16" s="4">
-        <v>-0.155</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="I16" s="4">
         <v>0.01</v>
       </c>
-      <c r="J16" t="s">
-        <v>16</v>
+      <c r="J16" s="4">
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
       </c>
       <c r="L16" s="4">
-        <v>-0.74</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="M16" s="4">
         <v>0</v>
@@ -2427,43 +2612,46 @@
       <c r="N16" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="2">
-        <v>41956</v>
+        <v>41963</v>
       </c>
       <c r="C17" s="3">
-        <v>0.50069444444444444</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D17" s="3">
-        <v>0.54236111111111118</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G17" s="4">
-        <v>-0.32500000000000001</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="H17" s="4">
-        <v>-0.32500000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="I17" s="4">
         <v>0.01</v>
       </c>
-      <c r="J17" t="s">
-        <v>14</v>
+      <c r="J17" s="4">
+        <v>0</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
       </c>
       <c r="L17" s="4">
-        <v>0</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="M17" s="4">
         <v>0</v>
@@ -2471,8 +2659,11 @@
       <c r="N17" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -2480,34 +2671,34 @@
         <v>41956</v>
       </c>
       <c r="C18" s="3">
-        <v>0.50069444444444444</v>
+        <v>0.45</v>
       </c>
       <c r="D18" s="3">
         <v>0.54236111111111118</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G18" s="4">
-        <v>-0.28500000000000003</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="H18" s="4">
-        <v>-0.28500000000000003</v>
+        <v>0.98</v>
       </c>
       <c r="I18" s="4">
         <v>0.01</v>
       </c>
-      <c r="J18" t="s">
-        <v>14</v>
+      <c r="J18" s="4">
+        <v>0</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
       </c>
       <c r="L18" s="4">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="M18" s="4">
         <v>0</v>
@@ -2515,43 +2706,46 @@
       <c r="N18" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="2">
-        <v>41956</v>
+        <v>41957</v>
       </c>
       <c r="C19" s="3">
-        <v>0.50069444444444444</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="D19" s="3">
-        <v>0.54236111111111118</v>
+        <v>0.68472222222222223</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G19" s="4">
-        <v>-0.22500000000000001</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="H19" s="4">
-        <v>-0.22500000000000001</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="I19" s="4">
         <v>0.01</v>
       </c>
-      <c r="J19" t="s">
-        <v>14</v>
+      <c r="J19" s="4">
+        <v>0</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
       </c>
       <c r="L19" s="4">
-        <v>-0.16</v>
+        <v>0</v>
       </c>
       <c r="M19" s="4">
         <v>0</v>
@@ -2559,37 +2753,40 @@
       <c r="N19" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="2">
-        <v>41956</v>
+        <v>41961</v>
       </c>
       <c r="C20" s="3">
-        <v>0.50069444444444444</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D20" s="3">
-        <v>0.54236111111111118</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G20" s="4">
-        <v>-0.155</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="H20" s="4">
-        <v>-0.155</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="I20" s="4">
         <v>0.01</v>
       </c>
-      <c r="J20" t="s">
-        <v>14</v>
+      <c r="J20" s="4">
+        <v>0</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
@@ -2603,43 +2800,46 @@
       <c r="N20" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="2">
-        <v>41956</v>
+        <v>41963</v>
       </c>
       <c r="C21" s="3">
-        <v>0.50069444444444444</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D21" s="3">
-        <v>0.54236111111111118</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G21" s="4">
-        <v>-0.38500000000000001</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="H21" s="4">
-        <v>-0.38500000000000001</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="I21" s="4">
         <v>0.01</v>
       </c>
-      <c r="J21" t="s">
-        <v>16</v>
+      <c r="J21" s="4">
+        <v>0</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
       </c>
       <c r="L21" s="4">
-        <v>-0.74</v>
+        <v>0</v>
       </c>
       <c r="M21" s="4">
         <v>0</v>
@@ -2647,8 +2847,11 @@
       <c r="N21" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -2656,34 +2859,34 @@
         <v>41956</v>
       </c>
       <c r="C22" s="3">
-        <v>0.50069444444444444</v>
+        <v>0.45</v>
       </c>
       <c r="D22" s="3">
         <v>0.54236111111111118</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G22" s="4">
-        <v>-0.33500000000000002</v>
+        <v>1.917</v>
       </c>
       <c r="H22" s="4">
-        <v>-0.33500000000000002</v>
+        <v>1.9350000000000001</v>
       </c>
       <c r="I22" s="4">
         <v>0.01</v>
       </c>
-      <c r="J22" t="s">
-        <v>16</v>
+      <c r="J22" s="4">
+        <v>0</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
       </c>
       <c r="L22" s="4">
-        <v>-0.54</v>
+        <v>-0.74</v>
       </c>
       <c r="M22" s="4">
         <v>0</v>
@@ -2691,184 +2894,199 @@
       <c r="N22" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="2">
+        <v>41957</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.68472222222222223</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>-0.73</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="2">
+        <v>41961</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1.7809999999999999</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1.7809999999999999</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>-0.73</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="2">
+        <v>41963</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1.776</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1.7370000000000001</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>-0.748</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="2">
         <v>41956</v>
       </c>
-      <c r="C23" s="3">
-        <v>0.50069444444444444</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C26" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D26" s="3">
         <v>0.54236111111111118</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="4">
-        <v>-0.26500000000000001</v>
-      </c>
-      <c r="H23" s="4">
-        <v>-0.26500000000000001</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0</v>
-      </c>
-      <c r="L23" s="4">
-        <v>-0.9</v>
-      </c>
-      <c r="M23" s="4">
-        <v>0</v>
-      </c>
-      <c r="N23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="2">
-        <v>41956</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.50069444444444444</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0.54236111111111118</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="4">
-        <v>-0.155</v>
-      </c>
-      <c r="H24" s="4">
-        <v>-0.155</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J24" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0</v>
-      </c>
-      <c r="L24" s="4">
-        <v>-0.74</v>
-      </c>
-      <c r="M24" s="4">
-        <v>0</v>
-      </c>
-      <c r="N24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2">
-        <v>41957</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.43958333333333338</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0.68472222222222223</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J25" s="4">
-        <v>0</v>
-      </c>
-      <c r="K25" s="5">
-        <v>-0.05</v>
-      </c>
-      <c r="L25" s="4">
-        <v>0</v>
-      </c>
-      <c r="M25" s="4">
-        <v>0</v>
-      </c>
-      <c r="N25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="2">
-        <v>41957</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0.43958333333333338</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0.68472222222222223</v>
-      </c>
       <c r="E26" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G26" s="4">
-        <v>0</v>
+        <v>3.0150000000000001</v>
       </c>
       <c r="H26" s="4">
-        <v>0</v>
+        <v>3.0289999999999999</v>
       </c>
       <c r="I26" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26" s="5">
-        <v>-0.05</v>
+        <v>0.01</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0</v>
       </c>
       <c r="L26" s="4">
-        <v>-0.73</v>
+        <v>0</v>
       </c>
       <c r="M26" s="4">
         <v>0</v>
       </c>
       <c r="N26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="4" t="s">
         <v>13</v>
       </c>
@@ -2885,13 +3103,13 @@
         <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G27" s="4">
-        <v>0.46800000000000003</v>
+        <v>2.5870000000000002</v>
       </c>
       <c r="H27" s="4">
-        <v>0.47499999999999998</v>
+        <v>2.597</v>
       </c>
       <c r="I27" s="4">
         <v>0.01</v>
@@ -2903,39 +3121,42 @@
         <v>0</v>
       </c>
       <c r="L27" s="4">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="M27" s="4">
         <v>0</v>
       </c>
       <c r="N27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="2">
-        <v>41957</v>
+        <v>41961</v>
       </c>
       <c r="C28" s="3">
-        <v>0.43958333333333338</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D28" s="3">
-        <v>0.68472222222222223</v>
+        <v>0.47569444444444442</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G28" s="4">
-        <v>0.97599999999999998</v>
+        <v>2.5750000000000002</v>
       </c>
       <c r="H28" s="4">
-        <v>0.98599999999999999</v>
+        <v>2.5750000000000002</v>
       </c>
       <c r="I28" s="4">
         <v>0.01</v>
@@ -2953,33 +3174,36 @@
         <v>0</v>
       </c>
       <c r="N28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="2">
-        <v>41957</v>
+        <v>41961</v>
       </c>
       <c r="C29" s="3">
-        <v>0.43958333333333338</v>
+        <v>0.4826388888888889</v>
       </c>
       <c r="D29" s="3">
-        <v>0.68472222222222223</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G29" s="4">
-        <v>1.7749999999999999</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="H29" s="4">
-        <v>1.75</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="I29" s="4">
         <v>0.01</v>
@@ -2991,27 +3215,30 @@
         <v>0</v>
       </c>
       <c r="L29" s="4">
-        <v>-0.73</v>
+        <v>-1.66</v>
       </c>
       <c r="M29" s="4">
         <v>0</v>
       </c>
       <c r="N29" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="2">
-        <v>41957</v>
+        <v>41963</v>
       </c>
       <c r="C30" s="3">
-        <v>0.43958333333333338</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D30" s="3">
-        <v>0.68472222222222223</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>33</v>
@@ -3020,10 +3247,10 @@
         <v>12</v>
       </c>
       <c r="G30" s="4">
-        <v>2.5870000000000002</v>
+        <v>2.5950000000000002</v>
       </c>
       <c r="H30" s="4">
-        <v>2.597</v>
+        <v>2.569</v>
       </c>
       <c r="I30" s="4">
         <v>0.01</v>
@@ -3043,37 +3270,40 @@
       <c r="N30" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="2">
-        <v>41957</v>
+        <v>41956</v>
       </c>
       <c r="C31" s="3">
-        <v>0.43958333333333338</v>
+        <v>0.45</v>
       </c>
       <c r="D31" s="3">
-        <v>0.68472222222222223</v>
+        <v>0.4916666666666667</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G31" s="4">
-        <v>0</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="H31" s="4">
-        <v>0</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="I31" s="4">
-        <v>0</v>
-      </c>
-      <c r="J31" s="4">
-        <v>0</v>
+        <v>0.01</v>
+      </c>
+      <c r="J31" t="s">
+        <v>14</v>
       </c>
       <c r="K31" s="4">
         <v>0</v>
@@ -3087,19 +3317,22 @@
       <c r="N31" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="2">
-        <v>41957</v>
+        <v>41956</v>
       </c>
       <c r="C32" s="3">
-        <v>0.43958333333333338</v>
+        <v>0.50069444444444444</v>
       </c>
       <c r="D32" s="3">
-        <v>0.48125000000000001</v>
+        <v>0.54236111111111118</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>34</v>
@@ -3131,8 +3364,11 @@
       <c r="N32" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="4" t="s">
         <v>13</v>
       </c>
@@ -3149,13 +3385,13 @@
         <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G33" s="4">
-        <v>-0.28500000000000003</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="H33" s="4">
-        <v>-0.28500000000000003</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="I33" s="4">
         <v>0.01</v>
@@ -3167,16 +3403,19 @@
         <v>0</v>
       </c>
       <c r="L33" s="4">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="M33" s="4">
         <v>0</v>
       </c>
       <c r="N33" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="4" t="s">
         <v>13</v>
       </c>
@@ -3184,22 +3423,22 @@
         <v>41957</v>
       </c>
       <c r="C34" s="3">
-        <v>0.43958333333333338</v>
+        <v>0.48819444444444443</v>
       </c>
       <c r="D34" s="3">
-        <v>0.48125000000000001</v>
+        <v>0.52986111111111112</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G34" s="4">
-        <v>-0.22500000000000001</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="H34" s="4">
-        <v>-0.22500000000000001</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="I34" s="4">
         <v>0.01</v>
@@ -3211,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4">
-        <v>-0.16</v>
+        <v>0</v>
       </c>
       <c r="M34" s="4">
         <v>0</v>
@@ -3219,8 +3458,11 @@
       <c r="N34" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="4" t="s">
         <v>13</v>
       </c>
@@ -3228,22 +3470,22 @@
         <v>41957</v>
       </c>
       <c r="C35" s="3">
-        <v>0.43958333333333338</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="D35" s="3">
-        <v>0.48125000000000001</v>
+        <v>0.57916666666666672</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G35" s="4">
-        <v>-0.155</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="H35" s="4">
-        <v>-0.155</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="I35" s="4">
         <v>0.01</v>
@@ -3263,8 +3505,11 @@
       <c r="N35" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="O35" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="4" t="s">
         <v>13</v>
       </c>
@@ -3272,34 +3517,34 @@
         <v>41957</v>
       </c>
       <c r="C36" s="3">
-        <v>0.43958333333333338</v>
+        <v>0.59444444444444444</v>
       </c>
       <c r="D36" s="3">
-        <v>0.48125000000000001</v>
+        <v>0.63611111111111118</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G36" s="4">
-        <v>-0.38500000000000001</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="H36" s="4">
-        <v>-0.38500000000000001</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="I36" s="4">
         <v>0.01</v>
       </c>
       <c r="J36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K36" s="4">
         <v>0</v>
       </c>
-      <c r="L36">
-        <v>-0.73</v>
+      <c r="L36" s="4">
+        <v>0</v>
       </c>
       <c r="M36" s="4">
         <v>0</v>
@@ -3307,8 +3552,11 @@
       <c r="N36" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="4" t="s">
         <v>13</v>
       </c>
@@ -3316,34 +3564,34 @@
         <v>41957</v>
       </c>
       <c r="C37" s="3">
-        <v>0.43958333333333338</v>
+        <v>0.6430555555555556</v>
       </c>
       <c r="D37" s="3">
-        <v>0.48125000000000001</v>
+        <v>0.68472222222222223</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G37" s="4">
-        <v>-0.33500000000000002</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="H37" s="4">
-        <v>-0.33500000000000002</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="I37" s="4">
         <v>0.01</v>
       </c>
       <c r="J37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K37" s="4">
         <v>0</v>
       </c>
-      <c r="L37">
-        <v>-0.53</v>
+      <c r="L37" s="4">
+        <v>0</v>
       </c>
       <c r="M37" s="4">
         <v>0</v>
@@ -3351,31 +3599,34 @@
       <c r="N37" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="O37" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="2">
-        <v>41957</v>
+        <v>41961</v>
       </c>
       <c r="C38" s="3">
-        <v>0.43958333333333338</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D38" s="3">
-        <v>0.48125000000000001</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G38" s="4">
-        <v>-0.26500000000000001</v>
+        <v>-0.155</v>
       </c>
       <c r="H38" s="4">
-        <v>-0.26500000000000001</v>
+        <v>-0.155</v>
       </c>
       <c r="I38" s="4">
         <v>0.01</v>
@@ -3386,8 +3637,8 @@
       <c r="K38" s="4">
         <v>0</v>
       </c>
-      <c r="L38">
-        <v>-0.89</v>
+      <c r="L38" s="4">
+        <v>0.251</v>
       </c>
       <c r="M38" s="4">
         <v>0</v>
@@ -3395,25 +3646,28 @@
       <c r="N38" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="O38" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B39" s="2">
-        <v>41957</v>
+        <v>41963</v>
       </c>
       <c r="C39" s="3">
-        <v>0.43958333333333338</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D39" s="3">
-        <v>0.48125000000000001</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G39" s="4">
         <v>-0.155</v>
@@ -3430,8 +3684,8 @@
       <c r="K39" s="4">
         <v>0</v>
       </c>
-      <c r="L39">
-        <v>-0.73</v>
+      <c r="L39" s="4">
+        <v>0.251</v>
       </c>
       <c r="M39" s="4">
         <v>0</v>
@@ -3439,19 +3693,22 @@
       <c r="N39" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="O39" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B40" s="2">
-        <v>41957</v>
+        <v>41963</v>
       </c>
       <c r="C40" s="3">
-        <v>0.48819444444444443</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="D40" s="3">
-        <v>0.52986111111111112</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>34</v>
@@ -3460,42 +3717,45 @@
         <v>17</v>
       </c>
       <c r="G40" s="4">
-        <v>-0.32500000000000001</v>
+        <v>-0.155</v>
       </c>
       <c r="H40" s="4">
-        <v>-0.32500000000000001</v>
+        <v>-0.155</v>
       </c>
       <c r="I40" s="4">
         <v>0.01</v>
       </c>
       <c r="J40" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K40" s="4">
         <v>0</v>
       </c>
       <c r="L40" s="4">
-        <v>0</v>
+        <v>0.251</v>
       </c>
       <c r="M40" s="4">
         <v>0</v>
       </c>
       <c r="N40" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B41" s="2">
-        <v>41957</v>
+        <v>41956</v>
       </c>
       <c r="C41" s="3">
-        <v>0.48819444444444443</v>
+        <v>0.45</v>
       </c>
       <c r="D41" s="3">
-        <v>0.52986111111111112</v>
+        <v>0.4916666666666667</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>34</v>
@@ -3525,33 +3785,36 @@
         <v>0</v>
       </c>
       <c r="N41" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B42" s="2">
-        <v>41957</v>
+        <v>41956</v>
       </c>
       <c r="C42" s="3">
-        <v>0.48819444444444443</v>
+        <v>0.50069444444444444</v>
       </c>
       <c r="D42" s="3">
-        <v>0.52986111111111101</v>
+        <v>0.54236111111111118</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G42" s="4">
-        <v>-0.22500000000000001</v>
+        <v>-0.28500000000000003</v>
       </c>
       <c r="H42" s="4">
-        <v>-0.22500000000000001</v>
+        <v>-0.28500000000000003</v>
       </c>
       <c r="I42" s="4">
         <v>0.01</v>
@@ -3563,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="4">
-        <v>-0.16</v>
+        <v>0.22</v>
       </c>
       <c r="M42" s="4">
         <v>0</v>
@@ -3571,8 +3834,11 @@
       <c r="N42" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="O42" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="4" t="s">
         <v>13</v>
       </c>
@@ -3580,22 +3846,22 @@
         <v>41957</v>
       </c>
       <c r="C43" s="3">
-        <v>0.48819444444444443</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="D43" s="3">
-        <v>0.52986111111111101</v>
+        <v>0.48125000000000001</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G43" s="4">
-        <v>-0.155</v>
+        <v>-0.28500000000000003</v>
       </c>
       <c r="H43" s="4">
-        <v>-0.155</v>
+        <v>-0.28500000000000003</v>
       </c>
       <c r="I43" s="4">
         <v>0.01</v>
@@ -3607,16 +3873,19 @@
         <v>0</v>
       </c>
       <c r="L43" s="4">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="M43" s="4">
         <v>0</v>
       </c>
       <c r="N43" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="4" t="s">
         <v>13</v>
       </c>
@@ -3627,40 +3896,43 @@
         <v>0.48819444444444443</v>
       </c>
       <c r="D44" s="3">
-        <v>0.52986111111111101</v>
+        <v>0.52986111111111112</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G44" s="4">
-        <v>-0.38500000000000001</v>
+        <v>-0.28500000000000003</v>
       </c>
       <c r="H44" s="4">
-        <v>-0.38500000000000001</v>
+        <v>-0.28500000000000003</v>
       </c>
       <c r="I44" s="4">
         <v>0.01</v>
       </c>
       <c r="J44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K44" s="4">
         <v>0</v>
       </c>
-      <c r="L44">
-        <v>-0.73</v>
+      <c r="L44" s="4">
+        <v>0.22</v>
       </c>
       <c r="M44" s="4">
         <v>0</v>
       </c>
       <c r="N44" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="4" t="s">
         <v>13</v>
       </c>
@@ -3668,43 +3940,46 @@
         <v>41957</v>
       </c>
       <c r="C45" s="3">
-        <v>0.48819444444444443</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="D45" s="3">
-        <v>0.52986111111111101</v>
+        <v>0.57916666666666672</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G45" s="4">
-        <v>-0.33500000000000002</v>
+        <v>-0.28500000000000003</v>
       </c>
       <c r="H45" s="4">
-        <v>-0.33500000000000002</v>
+        <v>-0.28500000000000003</v>
       </c>
       <c r="I45" s="4">
         <v>0.01</v>
       </c>
       <c r="J45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K45" s="4">
         <v>0</v>
       </c>
-      <c r="L45">
-        <v>-0.53</v>
+      <c r="L45" s="4">
+        <v>0.22</v>
       </c>
       <c r="M45" s="4">
         <v>0</v>
       </c>
       <c r="N45" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="4" t="s">
         <v>13</v>
       </c>
@@ -3712,34 +3987,34 @@
         <v>41957</v>
       </c>
       <c r="C46" s="3">
-        <v>0.48819444444444443</v>
+        <v>0.59444444444444444</v>
       </c>
       <c r="D46" s="3">
-        <v>0.52986111111111101</v>
+        <v>0.63611111111111118</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G46" s="4">
-        <v>-0.26500000000000001</v>
+        <v>-0.28500000000000003</v>
       </c>
       <c r="H46" s="4">
-        <v>-0.26500000000000001</v>
+        <v>-0.28500000000000003</v>
       </c>
       <c r="I46" s="4">
         <v>0.01</v>
       </c>
       <c r="J46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K46" s="4">
         <v>0</v>
       </c>
-      <c r="L46">
-        <v>-0.89</v>
+      <c r="L46" s="4">
+        <v>0.22</v>
       </c>
       <c r="M46" s="4">
         <v>0</v>
@@ -3747,8 +4022,11 @@
       <c r="N46" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:14">
+      <c r="O46" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="4" t="s">
         <v>13</v>
       </c>
@@ -3756,78 +4034,81 @@
         <v>41957</v>
       </c>
       <c r="C47" s="3">
-        <v>0.48819444444444443</v>
+        <v>0.6430555555555556</v>
       </c>
       <c r="D47" s="3">
-        <v>0.52986111111111101</v>
+        <v>0.68472222222222223</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G47" s="4">
+        <v>-0.28500000000000003</v>
+      </c>
+      <c r="H47" s="4">
+        <v>-0.28500000000000003</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J47" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0</v>
+      </c>
+      <c r="L47" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="M47" s="4">
+        <v>0</v>
+      </c>
+      <c r="N47" s="4">
+        <v>0</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="2">
+        <v>41961</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.27083333333333298</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.52430555555555602</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="4">
         <v>-0.155</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H48" s="4">
         <v>-0.155</v>
       </c>
-      <c r="I47" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="I48" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J48" t="s">
         <v>16</v>
       </c>
-      <c r="K47" s="4">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>-0.73</v>
-      </c>
-      <c r="M47" s="4">
-        <v>0</v>
-      </c>
-      <c r="N47" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="2">
-        <v>41957</v>
-      </c>
-      <c r="C48" s="3">
-        <v>0.53749999999999998</v>
-      </c>
-      <c r="D48" s="3">
-        <v>0.57916666666666672</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" s="4">
-        <v>-0.32500000000000001</v>
-      </c>
-      <c r="H48" s="4">
-        <v>-0.32500000000000001</v>
-      </c>
-      <c r="I48" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J48" t="s">
-        <v>14</v>
-      </c>
       <c r="K48" s="4">
         <v>0</v>
       </c>
       <c r="L48" s="4">
-        <v>0</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="M48" s="4">
         <v>0</v>
@@ -3835,19 +4116,22 @@
       <c r="N48" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="O48" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B49" s="2">
-        <v>41957</v>
+        <v>41963</v>
       </c>
       <c r="C49" s="3">
-        <v>0.53749999999999998</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D49" s="3">
-        <v>0.57916666666666672</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>34</v>
@@ -3856,66 +4140,69 @@
         <v>18</v>
       </c>
       <c r="G49" s="4">
-        <v>-0.28500000000000003</v>
+        <v>-0.155</v>
       </c>
       <c r="H49" s="4">
-        <v>-0.28500000000000003</v>
+        <v>-0.155</v>
       </c>
       <c r="I49" s="4">
         <v>0.01</v>
       </c>
       <c r="J49" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K49" s="4">
         <v>0</v>
       </c>
       <c r="L49" s="4">
-        <v>0.22</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="M49" s="4">
         <v>0</v>
       </c>
       <c r="N49" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B50" s="2">
-        <v>41957</v>
+        <v>41963</v>
       </c>
       <c r="C50" s="3">
-        <v>0.53749999999999998</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="D50" s="3">
-        <v>0.57916666666666705</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G50" s="4">
-        <v>-0.22500000000000001</v>
+        <v>-0.155</v>
       </c>
       <c r="H50" s="4">
-        <v>-0.22500000000000001</v>
+        <v>-0.155</v>
       </c>
       <c r="I50" s="4">
         <v>0.01</v>
       </c>
       <c r="J50" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K50" s="4">
         <v>0</v>
       </c>
       <c r="L50" s="4">
-        <v>-0.16</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="M50" s="4">
         <v>0</v>
@@ -3923,31 +4210,34 @@
       <c r="N50" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="O50" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B51" s="2">
-        <v>41957</v>
+        <v>41956</v>
       </c>
       <c r="C51" s="3">
-        <v>0.53749999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="D51" s="3">
-        <v>0.57916666666666705</v>
+        <v>0.4916666666666667</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G51" s="4">
-        <v>-0.155</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="H51" s="4">
-        <v>-0.155</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="I51" s="4">
         <v>0.01</v>
@@ -3959,60 +4249,66 @@
         <v>0</v>
       </c>
       <c r="L51" s="4">
-        <v>0</v>
+        <v>-0.16</v>
       </c>
       <c r="M51" s="4">
         <v>0</v>
       </c>
       <c r="N51" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B52" s="2">
-        <v>41957</v>
+        <v>41956</v>
       </c>
       <c r="C52" s="3">
-        <v>0.53749999999999998</v>
+        <v>0.50069444444444444</v>
       </c>
       <c r="D52" s="3">
-        <v>0.57916666666666705</v>
+        <v>0.54236111111111118</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G52" s="4">
-        <v>-0.38500000000000001</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="H52" s="4">
-        <v>-0.38500000000000001</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="I52" s="4">
         <v>0.01</v>
       </c>
       <c r="J52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K52" s="4">
         <v>0</v>
       </c>
-      <c r="L52">
-        <v>-0.73</v>
+      <c r="L52" s="4">
+        <v>-0.16</v>
       </c>
       <c r="M52" s="4">
         <v>0</v>
       </c>
       <c r="N52" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="4" t="s">
         <v>13</v>
       </c>
@@ -4020,34 +4316,34 @@
         <v>41957</v>
       </c>
       <c r="C53" s="3">
-        <v>0.53749999999999998</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="D53" s="3">
-        <v>0.57916666666666705</v>
+        <v>0.48125000000000001</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G53" s="4">
-        <v>-0.33500000000000002</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="H53" s="4">
-        <v>-0.33500000000000002</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="I53" s="4">
         <v>0.01</v>
       </c>
       <c r="J53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K53" s="4">
         <v>0</v>
       </c>
-      <c r="L53">
-        <v>-0.53</v>
+      <c r="L53" s="4">
+        <v>-0.16</v>
       </c>
       <c r="M53" s="4">
         <v>0</v>
@@ -4055,8 +4351,11 @@
       <c r="N53" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="O53" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="4" t="s">
         <v>13</v>
       </c>
@@ -4064,34 +4363,34 @@
         <v>41957</v>
       </c>
       <c r="C54" s="3">
-        <v>0.53749999999999998</v>
+        <v>0.48819444444444443</v>
       </c>
       <c r="D54" s="3">
-        <v>0.57916666666666705</v>
+        <v>0.52986111111111101</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G54" s="4">
-        <v>-0.26500000000000001</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="H54" s="4">
-        <v>-0.26500000000000001</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="I54" s="4">
         <v>0.01</v>
       </c>
       <c r="J54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K54" s="4">
         <v>0</v>
       </c>
-      <c r="L54">
-        <v>-0.89</v>
+      <c r="L54" s="4">
+        <v>-0.16</v>
       </c>
       <c r="M54" s="4">
         <v>0</v>
@@ -4099,8 +4398,11 @@
       <c r="N54" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="O54" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="4" t="s">
         <v>13</v>
       </c>
@@ -4117,34 +4419,37 @@
         <v>34</v>
       </c>
       <c r="F55" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G55" s="4">
-        <v>-0.155</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="H55" s="4">
-        <v>-0.155</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="I55" s="4">
         <v>0.01</v>
       </c>
       <c r="J55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K55" s="4">
         <v>0</v>
       </c>
-      <c r="L55">
-        <v>-0.73</v>
+      <c r="L55" s="4">
+        <v>-0.16</v>
       </c>
       <c r="M55" s="4">
         <v>0</v>
       </c>
       <c r="N55" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="4" t="s">
         <v>13</v>
       </c>
@@ -4152,22 +4457,22 @@
         <v>41957</v>
       </c>
       <c r="C56" s="3">
-        <v>0.59444444444444444</v>
+        <v>0.594444444444444</v>
       </c>
       <c r="D56" s="3">
-        <v>0.63611111111111118</v>
+        <v>0.63611111111111096</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G56" s="4">
-        <v>-0.32500000000000001</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="H56" s="4">
-        <v>-0.32500000000000001</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="I56" s="4">
         <v>0.01</v>
@@ -4179,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="4">
-        <v>0</v>
+        <v>-0.16</v>
       </c>
       <c r="M56" s="4">
         <v>0</v>
@@ -4187,8 +4492,11 @@
       <c r="N56" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:14">
+      <c r="O56" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="4" t="s">
         <v>13</v>
       </c>
@@ -4196,22 +4504,22 @@
         <v>41957</v>
       </c>
       <c r="C57" s="3">
-        <v>0.59444444444444444</v>
+        <v>0.64305555555555605</v>
       </c>
       <c r="D57" s="3">
-        <v>0.63611111111111118</v>
+        <v>0.68472222222222201</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G57" s="4">
-        <v>-0.28500000000000003</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="H57" s="4">
-        <v>-0.28500000000000003</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="I57" s="4">
         <v>0.01</v>
@@ -4223,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="4">
-        <v>0.22</v>
+        <v>-0.16</v>
       </c>
       <c r="M57" s="4">
         <v>0</v>
@@ -4231,19 +4539,22 @@
       <c r="N57" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:14">
+      <c r="O57" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B58" s="2">
-        <v>41957</v>
+        <v>41961</v>
       </c>
       <c r="C58" s="3">
-        <v>0.594444444444444</v>
+        <v>0.27083333333333298</v>
       </c>
       <c r="D58" s="3">
-        <v>0.63611111111111096</v>
+        <v>0.52430555555555602</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>34</v>
@@ -4252,22 +4563,22 @@
         <v>19</v>
       </c>
       <c r="G58" s="4">
-        <v>-0.22500000000000001</v>
+        <v>-0.155</v>
       </c>
       <c r="H58" s="4">
-        <v>-0.22500000000000001</v>
+        <v>-0.155</v>
       </c>
       <c r="I58" s="4">
         <v>0.01</v>
       </c>
       <c r="J58" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K58" s="4">
         <v>0</v>
       </c>
       <c r="L58" s="4">
-        <v>-0.16</v>
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="M58" s="4">
         <v>0</v>
@@ -4275,25 +4586,28 @@
       <c r="N58" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="O58" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="2">
-        <v>41957</v>
+        <v>41963</v>
       </c>
       <c r="C59" s="3">
-        <v>0.594444444444444</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D59" s="3">
-        <v>0.63611111111111096</v>
+        <v>0.46527777777777801</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G59" s="4">
         <v>-0.155</v>
@@ -4305,13 +4619,13 @@
         <v>0.01</v>
       </c>
       <c r="J59" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K59" s="4">
         <v>0</v>
       </c>
       <c r="L59" s="4">
-        <v>0</v>
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="M59" s="4">
         <v>0</v>
@@ -4319,31 +4633,34 @@
       <c r="N59" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:14">
+      <c r="O59" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="2">
-        <v>41957</v>
+        <v>41963</v>
       </c>
       <c r="C60" s="3">
-        <v>0.594444444444444</v>
+        <v>0.47222222222222199</v>
       </c>
       <c r="D60" s="3">
-        <v>0.63611111111111096</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G60" s="4">
-        <v>-0.38500000000000001</v>
+        <v>-0.155</v>
       </c>
       <c r="H60" s="4">
-        <v>-0.38500000000000001</v>
+        <v>-0.155</v>
       </c>
       <c r="I60" s="4">
         <v>0.01</v>
@@ -4354,52 +4671,55 @@
       <c r="K60" s="4">
         <v>0</v>
       </c>
-      <c r="L60">
-        <v>-0.73</v>
+      <c r="L60" s="4">
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="M60" s="4">
         <v>0</v>
       </c>
       <c r="N60" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O60" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B61" s="2">
-        <v>41957</v>
+        <v>41956</v>
       </c>
       <c r="C61" s="3">
-        <v>0.594444444444444</v>
+        <v>0.45</v>
       </c>
       <c r="D61" s="3">
-        <v>0.63611111111111096</v>
+        <v>0.4916666666666667</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G61" s="4">
-        <v>-0.33500000000000002</v>
+        <v>-0.155</v>
       </c>
       <c r="H61" s="4">
-        <v>-0.33500000000000002</v>
+        <v>-0.155</v>
       </c>
       <c r="I61" s="4">
         <v>0.01</v>
       </c>
       <c r="J61" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K61" s="4">
         <v>0</v>
       </c>
-      <c r="L61">
-        <v>-0.53</v>
+      <c r="L61" s="4">
+        <v>0</v>
       </c>
       <c r="M61" s="4">
         <v>0</v>
@@ -4407,43 +4727,46 @@
       <c r="N61" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:14">
+      <c r="O61" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B62" s="2">
-        <v>41957</v>
+        <v>41956</v>
       </c>
       <c r="C62" s="3">
-        <v>0.594444444444444</v>
+        <v>0.50069444444444444</v>
       </c>
       <c r="D62" s="3">
-        <v>0.63611111111111096</v>
+        <v>0.54236111111111118</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G62" s="4">
-        <v>-0.26500000000000001</v>
+        <v>-0.155</v>
       </c>
       <c r="H62" s="4">
-        <v>-0.26500000000000001</v>
+        <v>-0.155</v>
       </c>
       <c r="I62" s="4">
         <v>0.01</v>
       </c>
       <c r="J62" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K62" s="4">
         <v>0</v>
       </c>
-      <c r="L62">
-        <v>-0.89</v>
+      <c r="L62" s="4">
+        <v>0</v>
       </c>
       <c r="M62" s="4">
         <v>0</v>
@@ -4451,8 +4774,11 @@
       <c r="N62" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:14">
+      <c r="O62" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="4" t="s">
         <v>13</v>
       </c>
@@ -4460,16 +4786,16 @@
         <v>41957</v>
       </c>
       <c r="C63" s="3">
-        <v>0.594444444444444</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="D63" s="3">
-        <v>0.63611111111111096</v>
+        <v>0.48125000000000001</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F63" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G63" s="4">
         <v>-0.155</v>
@@ -4481,13 +4807,13 @@
         <v>0.01</v>
       </c>
       <c r="J63" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K63" s="4">
         <v>0</v>
       </c>
-      <c r="L63">
-        <v>-0.73</v>
+      <c r="L63" s="4">
+        <v>0</v>
       </c>
       <c r="M63" s="4">
         <v>0</v>
@@ -4495,8 +4821,11 @@
       <c r="N63" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:14">
+      <c r="O63" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="4" t="s">
         <v>13</v>
       </c>
@@ -4504,22 +4833,22 @@
         <v>41957</v>
       </c>
       <c r="C64" s="3">
-        <v>0.6430555555555556</v>
+        <v>0.48819444444444443</v>
       </c>
       <c r="D64" s="3">
-        <v>0.68472222222222223</v>
+        <v>0.52986111111111101</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G64" s="4">
-        <v>-0.32500000000000001</v>
+        <v>-0.155</v>
       </c>
       <c r="H64" s="4">
-        <v>-0.32500000000000001</v>
+        <v>-0.155</v>
       </c>
       <c r="I64" s="4">
         <v>0.01</v>
@@ -4539,8 +4868,11 @@
       <c r="N64" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:14">
+      <c r="O64" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="4" t="s">
         <v>13</v>
       </c>
@@ -4548,22 +4880,22 @@
         <v>41957</v>
       </c>
       <c r="C65" s="3">
-        <v>0.6430555555555556</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="D65" s="3">
-        <v>0.68472222222222223</v>
+        <v>0.57916666666666705</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G65" s="4">
-        <v>-0.28500000000000003</v>
+        <v>-0.155</v>
       </c>
       <c r="H65" s="4">
-        <v>-0.28500000000000003</v>
+        <v>-0.155</v>
       </c>
       <c r="I65" s="4">
         <v>0.01</v>
@@ -4575,16 +4907,19 @@
         <v>0</v>
       </c>
       <c r="L65" s="4">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="M65" s="4">
         <v>0</v>
       </c>
       <c r="N65" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="4" t="s">
         <v>13</v>
       </c>
@@ -4592,22 +4927,22 @@
         <v>41957</v>
       </c>
       <c r="C66" s="3">
-        <v>0.64305555555555605</v>
+        <v>0.594444444444444</v>
       </c>
       <c r="D66" s="3">
-        <v>0.68472222222222201</v>
+        <v>0.63611111111111096</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G66" s="4">
-        <v>-0.22500000000000001</v>
+        <v>-0.155</v>
       </c>
       <c r="H66" s="4">
-        <v>-0.22500000000000001</v>
+        <v>-0.155</v>
       </c>
       <c r="I66" s="4">
         <v>0.01</v>
@@ -4619,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="4">
-        <v>-0.16</v>
+        <v>0</v>
       </c>
       <c r="M66" s="4">
         <v>0</v>
@@ -4627,8 +4962,11 @@
       <c r="N66" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:14">
+      <c r="O66" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="4" t="s">
         <v>13</v>
       </c>
@@ -4671,31 +5009,34 @@
       <c r="N67" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:14">
+      <c r="O67" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B68" s="2">
-        <v>41957</v>
+        <v>41961</v>
       </c>
       <c r="C68" s="3">
-        <v>0.64305555555555605</v>
+        <v>0.27083333333333298</v>
       </c>
       <c r="D68" s="3">
-        <v>0.68472222222222201</v>
+        <v>0.52430555555555602</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G68" s="4">
-        <v>-0.38500000000000001</v>
+        <v>-4.0000000000000036E-3</v>
       </c>
       <c r="H68" s="4">
-        <v>-0.38500000000000001</v>
+        <v>-4.0000000000000036E-3</v>
       </c>
       <c r="I68" s="4">
         <v>0.01</v>
@@ -4706,8 +5047,8 @@
       <c r="K68" s="4">
         <v>0</v>
       </c>
-      <c r="L68">
-        <v>-0.73</v>
+      <c r="L68" s="4">
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="M68" s="4">
         <v>0</v>
@@ -4715,31 +5056,34 @@
       <c r="N68" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:14">
+      <c r="O68" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B69" s="2">
-        <v>41957</v>
+        <v>41963</v>
       </c>
       <c r="C69" s="3">
-        <v>0.64305555555555605</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D69" s="3">
-        <v>0.68472222222222201</v>
+        <v>0.46527777777777801</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G69" s="4">
-        <v>-0.33500000000000002</v>
+        <v>-4.0000000000000036E-3</v>
       </c>
       <c r="H69" s="4">
-        <v>-0.33500000000000002</v>
+        <v>-4.0000000000000036E-3</v>
       </c>
       <c r="I69" s="4">
         <v>0.01</v>
@@ -4750,8 +5094,8 @@
       <c r="K69" s="4">
         <v>0</v>
       </c>
-      <c r="L69">
-        <v>-0.53</v>
+      <c r="L69" s="4">
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="M69" s="4">
         <v>0</v>
@@ -4759,31 +5103,34 @@
       <c r="N69" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:14">
+      <c r="O69" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B70" s="2">
-        <v>41957</v>
+        <v>41963</v>
       </c>
       <c r="C70" s="3">
-        <v>0.64305555555555605</v>
+        <v>0.47222222222222199</v>
       </c>
       <c r="D70" s="3">
-        <v>0.68472222222222201</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G70" s="4">
-        <v>-0.26500000000000001</v>
+        <v>-4.0000000000000036E-3</v>
       </c>
       <c r="H70" s="4">
-        <v>-0.26500000000000001</v>
+        <v>-4.0000000000000036E-3</v>
       </c>
       <c r="I70" s="4">
         <v>0.01</v>
@@ -4794,8 +5141,8 @@
       <c r="K70" s="4">
         <v>0</v>
       </c>
-      <c r="L70">
-        <v>-0.89</v>
+      <c r="L70" s="4">
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="M70" s="4">
         <v>0</v>
@@ -4803,31 +5150,34 @@
       <c r="N70" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:14">
+      <c r="O70" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B71" s="2">
-        <v>41957</v>
+        <v>41956</v>
       </c>
       <c r="C71" s="3">
-        <v>0.64305555555555605</v>
+        <v>0.45</v>
       </c>
       <c r="D71" s="3">
-        <v>0.68472222222222201</v>
+        <v>0.4916666666666667</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F71" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G71" s="4">
-        <v>-0.155</v>
+        <v>-0.38500000000000001</v>
       </c>
       <c r="H71" s="4">
-        <v>-0.155</v>
+        <v>-0.38500000000000001</v>
       </c>
       <c r="I71" s="4">
         <v>0.01</v>
@@ -4838,8 +5188,8 @@
       <c r="K71" s="4">
         <v>0</v>
       </c>
-      <c r="L71">
-        <v>-0.73</v>
+      <c r="L71" s="4">
+        <v>-0.74</v>
       </c>
       <c r="M71" s="4">
         <v>0</v>
@@ -4847,43 +5197,46 @@
       <c r="N71" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:14">
+      <c r="O71" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B72" s="2">
-        <v>41961</v>
+        <v>41956</v>
       </c>
       <c r="C72" s="3">
-        <v>0.27083333333333331</v>
+        <v>0.50069444444444444</v>
       </c>
       <c r="D72" s="3">
-        <v>0.52430555555555558</v>
+        <v>0.54236111111111118</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G72" s="4">
-        <v>0</v>
+        <v>-0.38500000000000001</v>
       </c>
       <c r="H72" s="4">
-        <v>0</v>
+        <v>-0.38500000000000001</v>
       </c>
       <c r="I72" s="4">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="J72" t="s">
-        <v>14</v>
-      </c>
-      <c r="K72" s="5">
-        <v>-0.125</v>
+        <v>16</v>
+      </c>
+      <c r="K72" s="4">
+        <v>0</v>
       </c>
       <c r="L72" s="4">
-        <v>0</v>
+        <v>-0.74</v>
       </c>
       <c r="M72" s="4">
         <v>0</v>
@@ -4891,43 +5244,46 @@
       <c r="N72" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:14">
+      <c r="O72" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B73" s="2">
-        <v>41961</v>
+        <v>41957</v>
       </c>
       <c r="C73" s="3">
-        <v>0.27083333333333331</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="D73" s="3">
-        <v>0.52430555555555558</v>
+        <v>0.48125000000000001</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G73" s="4">
-        <v>0</v>
+        <v>-0.38500000000000001</v>
       </c>
       <c r="H73" s="4">
-        <v>0</v>
+        <v>-0.38500000000000001</v>
       </c>
       <c r="I73" s="4">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="J73" t="s">
         <v>16</v>
       </c>
-      <c r="K73" s="5">
-        <v>-0.05</v>
-      </c>
-      <c r="L73" s="4">
-        <v>0</v>
+      <c r="K73" s="4">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>-0.73</v>
       </c>
       <c r="M73" s="4">
         <v>0</v>
@@ -4935,42 +5291,45 @@
       <c r="N73" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:14">
+      <c r="O73" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B74" s="2">
-        <v>41961</v>
+        <v>41957</v>
       </c>
       <c r="C74" s="3">
-        <v>0.27083333333333331</v>
+        <v>0.48819444444444443</v>
       </c>
       <c r="D74" s="3">
-        <v>0.52430555555555558</v>
+        <v>0.52986111111111101</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F74" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G74" s="4">
-        <v>0</v>
+        <v>-0.38500000000000001</v>
       </c>
       <c r="H74" s="4">
-        <v>0</v>
+        <v>-0.38500000000000001</v>
       </c>
       <c r="I74" s="4">
         <v>0.01</v>
       </c>
-      <c r="J74" s="4" t="s">
-        <v>25</v>
+      <c r="J74" t="s">
+        <v>16</v>
       </c>
       <c r="K74" s="4">
-        <v>-0.2</v>
-      </c>
-      <c r="L74" s="4">
+        <v>0</v>
+      </c>
+      <c r="L74">
         <v>-0.73</v>
       </c>
       <c r="M74" s="4">
@@ -4979,87 +5338,93 @@
       <c r="N74" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:14">
+      <c r="O74" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B75" s="2">
-        <v>41961</v>
+        <v>41957</v>
       </c>
       <c r="C75" s="3">
-        <v>0.27083333333333331</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="D75" s="3">
-        <v>0.52430555555555558</v>
+        <v>0.57916666666666705</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F75" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G75" s="4">
-        <v>0</v>
+        <v>-0.38500000000000001</v>
       </c>
       <c r="H75" s="4">
-        <v>0</v>
+        <v>-0.38500000000000001</v>
       </c>
       <c r="I75" s="4">
         <v>0.01</v>
       </c>
-      <c r="J75" s="4" t="s">
-        <v>26</v>
+      <c r="J75" t="s">
+        <v>16</v>
       </c>
       <c r="K75" s="4">
-        <v>-0.05</v>
-      </c>
-      <c r="L75" s="4">
+        <v>0</v>
+      </c>
+      <c r="L75">
         <v>-0.73</v>
       </c>
       <c r="M75" s="4">
         <v>0</v>
       </c>
       <c r="N75" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O75" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B76" s="2">
-        <v>41961</v>
+        <v>41957</v>
       </c>
       <c r="C76" s="3">
-        <v>0.27083333333333331</v>
+        <v>0.594444444444444</v>
       </c>
       <c r="D76" s="3">
-        <v>0.52430555555555558</v>
+        <v>0.63611111111111096</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F76" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G76" s="4">
-        <v>0.44500000000000001</v>
+        <v>-0.38500000000000001</v>
       </c>
       <c r="H76" s="4">
-        <v>0.44500000000000001</v>
+        <v>-0.38500000000000001</v>
       </c>
       <c r="I76" s="4">
         <v>0.01</v>
       </c>
-      <c r="J76" s="4">
-        <v>0</v>
+      <c r="J76" t="s">
+        <v>16</v>
       </c>
       <c r="K76" s="4">
         <v>0</v>
       </c>
-      <c r="L76" s="4">
-        <v>0.97399999999999998</v>
+      <c r="L76">
+        <v>-0.73</v>
       </c>
       <c r="M76" s="4">
         <v>0</v>
@@ -5067,43 +5432,46 @@
       <c r="N76" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:14">
+      <c r="O76" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B77" s="2">
-        <v>41961</v>
+        <v>41957</v>
       </c>
       <c r="C77" s="3">
-        <v>0.27083333333333331</v>
+        <v>0.64305555555555605</v>
       </c>
       <c r="D77" s="3">
-        <v>0.52430555555555558</v>
+        <v>0.68472222222222201</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F77" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G77" s="4">
-        <v>0.97299999999999998</v>
+        <v>-0.38500000000000001</v>
       </c>
       <c r="H77" s="4">
-        <v>0.97299999999999998</v>
+        <v>-0.38500000000000001</v>
       </c>
       <c r="I77" s="4">
         <v>0.01</v>
       </c>
-      <c r="J77" s="4">
-        <v>0</v>
+      <c r="J77" t="s">
+        <v>16</v>
       </c>
       <c r="K77" s="4">
         <v>0</v>
       </c>
-      <c r="L77" s="4">
-        <v>0</v>
+      <c r="L77">
+        <v>-0.73</v>
       </c>
       <c r="M77" s="4">
         <v>0</v>
@@ -5111,8 +5479,11 @@
       <c r="N77" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:14">
+      <c r="O77" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" s="4" t="s">
         <v>13</v>
       </c>
@@ -5120,34 +5491,34 @@
         <v>41961</v>
       </c>
       <c r="C78" s="3">
-        <v>0.27083333333333331</v>
+        <v>0.27083333333333298</v>
       </c>
       <c r="D78" s="3">
-        <v>0.52430555555555558</v>
+        <v>0.52430555555555602</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G78" s="4">
-        <v>1.7809999999999999</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="H78" s="4">
-        <v>1.7809999999999999</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="I78" s="4">
         <v>0.01</v>
       </c>
-      <c r="J78" s="4">
-        <v>0</v>
+      <c r="J78" t="s">
+        <v>26</v>
       </c>
       <c r="K78" s="4">
         <v>0</v>
       </c>
       <c r="L78" s="4">
-        <v>-0.73</v>
+        <v>-0.496</v>
       </c>
       <c r="M78" s="4">
         <v>0</v>
@@ -5155,87 +5526,93 @@
       <c r="N78" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:14">
+      <c r="O78" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B79" s="2">
-        <v>41961</v>
+        <v>41963</v>
       </c>
       <c r="C79" s="3">
-        <v>0.27083333333333331</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D79" s="3">
-        <v>0.47569444444444442</v>
+        <v>0.46527777777777801</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G79" s="4">
-        <v>2.5750000000000002</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="H79" s="4">
-        <v>2.5750000000000002</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="I79" s="4">
         <v>0.01</v>
       </c>
-      <c r="J79" s="4">
-        <v>0</v>
+      <c r="J79" t="s">
+        <v>26</v>
       </c>
       <c r="K79" s="4">
         <v>0</v>
       </c>
       <c r="L79" s="4">
-        <v>0</v>
+        <v>-0.496</v>
       </c>
       <c r="M79" s="4">
         <v>0</v>
       </c>
       <c r="N79" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O79" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B80" s="2">
-        <v>41961</v>
+        <v>41963</v>
       </c>
       <c r="C80" s="3">
-        <v>0.27083333333333331</v>
+        <v>0.47222222222222199</v>
       </c>
       <c r="D80" s="3">
-        <v>0.52430555555555558</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G80" s="4">
-        <v>0</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="H80" s="4">
-        <v>0</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="I80" s="4">
-        <v>0</v>
-      </c>
-      <c r="J80" s="4">
-        <v>0</v>
+        <v>0.01</v>
+      </c>
+      <c r="J80" t="s">
+        <v>26</v>
       </c>
       <c r="K80" s="4">
         <v>0</v>
       </c>
       <c r="L80" s="4">
-        <v>0</v>
+        <v>-0.496</v>
       </c>
       <c r="M80" s="4">
         <v>0</v>
@@ -5243,31 +5620,34 @@
       <c r="N80" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:14">
+      <c r="O80" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B81" s="2">
-        <v>41961</v>
+        <v>41956</v>
       </c>
       <c r="C81" s="3">
-        <v>0.27083333333333331</v>
+        <v>0.45</v>
       </c>
       <c r="D81" s="3">
-        <v>0.52430555555555558</v>
+        <v>0.4916666666666667</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G81" s="4">
-        <v>-0.155</v>
+        <v>-0.33500000000000002</v>
       </c>
       <c r="H81" s="4">
-        <v>-0.155</v>
+        <v>-0.33500000000000002</v>
       </c>
       <c r="I81" s="4">
         <v>0.01</v>
@@ -5279,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="L81" s="4">
-        <v>0.251</v>
+        <v>-0.54</v>
       </c>
       <c r="M81" s="4">
         <v>0</v>
@@ -5287,31 +5667,34 @@
       <c r="N81" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:14">
+      <c r="O81" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B82" s="2">
-        <v>41961</v>
+        <v>41956</v>
       </c>
       <c r="C82" s="3">
-        <v>0.27083333333333298</v>
+        <v>0.50069444444444444</v>
       </c>
       <c r="D82" s="3">
-        <v>0.52430555555555602</v>
+        <v>0.54236111111111118</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G82" s="4">
-        <v>-0.155</v>
+        <v>-0.33500000000000002</v>
       </c>
       <c r="H82" s="4">
-        <v>-0.155</v>
+        <v>-0.33500000000000002</v>
       </c>
       <c r="I82" s="4">
         <v>0.01</v>
@@ -5323,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="4">
-        <v>8.2000000000000003E-2</v>
+        <v>-0.54</v>
       </c>
       <c r="M82" s="4">
         <v>0</v>
@@ -5331,31 +5714,34 @@
       <c r="N82" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:14">
+      <c r="O82" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B83" s="2">
-        <v>41961</v>
+        <v>41957</v>
       </c>
       <c r="C83" s="3">
-        <v>0.27083333333333298</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="D83" s="3">
-        <v>0.52430555555555602</v>
+        <v>0.48125000000000001</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G83" s="4">
-        <v>-0.155</v>
+        <v>-0.33500000000000002</v>
       </c>
       <c r="H83" s="4">
-        <v>-0.155</v>
+        <v>-0.33500000000000002</v>
       </c>
       <c r="I83" s="4">
         <v>0.01</v>
@@ -5366,8 +5752,8 @@
       <c r="K83" s="4">
         <v>0</v>
       </c>
-      <c r="L83" s="4">
-        <v>-7.9000000000000001E-2</v>
+      <c r="L83">
+        <v>-0.53</v>
       </c>
       <c r="M83" s="4">
         <v>0</v>
@@ -5375,31 +5761,34 @@
       <c r="N83" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:14">
+      <c r="O83" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B84" s="2">
-        <v>41961</v>
+        <v>41957</v>
       </c>
       <c r="C84" s="3">
-        <v>0.27083333333333298</v>
+        <v>0.48819444444444443</v>
       </c>
       <c r="D84" s="3">
-        <v>0.52430555555555602</v>
+        <v>0.52986111111111101</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G84" s="4">
-        <v>-4.0000000000000036E-3</v>
+        <v>-0.33500000000000002</v>
       </c>
       <c r="H84" s="4">
-        <v>-4.0000000000000036E-3</v>
+        <v>-0.33500000000000002</v>
       </c>
       <c r="I84" s="4">
         <v>0.01</v>
@@ -5410,8 +5799,8 @@
       <c r="K84" s="4">
         <v>0</v>
       </c>
-      <c r="L84" s="4">
-        <v>-7.9000000000000001E-2</v>
+      <c r="L84">
+        <v>-0.53</v>
       </c>
       <c r="M84" s="4">
         <v>0</v>
@@ -5419,43 +5808,46 @@
       <c r="N84" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:14">
+      <c r="O84" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B85" s="2">
-        <v>41961</v>
+        <v>41957</v>
       </c>
       <c r="C85" s="3">
-        <v>0.27083333333333298</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="D85" s="3">
-        <v>0.52430555555555602</v>
+        <v>0.57916666666666705</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G85" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>-0.33500000000000002</v>
       </c>
       <c r="H85" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>-0.33500000000000002</v>
       </c>
       <c r="I85" s="4">
         <v>0.01</v>
       </c>
       <c r="J85" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="K85" s="4">
         <v>0</v>
       </c>
-      <c r="L85" s="4">
-        <v>-0.496</v>
+      <c r="L85">
+        <v>-0.53</v>
       </c>
       <c r="M85" s="4">
         <v>0</v>
@@ -5463,19 +5855,22 @@
       <c r="N85" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:14">
+      <c r="O85" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B86" s="2">
-        <v>41961</v>
+        <v>41957</v>
       </c>
       <c r="C86" s="3">
-        <v>0.27083333333333298</v>
+        <v>0.594444444444444</v>
       </c>
       <c r="D86" s="3">
-        <v>0.52430555555555602</v>
+        <v>0.63611111111111096</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>34</v>
@@ -5484,22 +5879,22 @@
         <v>22</v>
       </c>
       <c r="G86" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>-0.33500000000000002</v>
       </c>
       <c r="H86" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>-0.33500000000000002</v>
       </c>
       <c r="I86" s="4">
         <v>0.01</v>
       </c>
       <c r="J86" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="K86" s="4">
         <v>0</v>
       </c>
-      <c r="L86" s="4">
-        <v>-0.66500000000000004</v>
+      <c r="L86">
+        <v>-0.53</v>
       </c>
       <c r="M86" s="4">
         <v>0</v>
@@ -5507,43 +5902,46 @@
       <c r="N86" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:14">
+      <c r="O86" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B87" s="2">
-        <v>41961</v>
+        <v>41957</v>
       </c>
       <c r="C87" s="3">
-        <v>0.27083333333333298</v>
+        <v>0.64305555555555605</v>
       </c>
       <c r="D87" s="3">
-        <v>0.52430555555555602</v>
+        <v>0.68472222222222201</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G87" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>-0.33500000000000002</v>
       </c>
       <c r="H87" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>-0.33500000000000002</v>
       </c>
       <c r="I87" s="4">
         <v>0.01</v>
       </c>
       <c r="J87" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="K87" s="4">
         <v>0</v>
       </c>
-      <c r="L87" s="4">
-        <v>-0.92900000000000005</v>
+      <c r="L87">
+        <v>-0.53</v>
       </c>
       <c r="M87" s="4">
         <v>0</v>
@@ -5551,8 +5949,11 @@
       <c r="N87" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:14">
+      <c r="O87" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88" s="4" t="s">
         <v>13</v>
       </c>
@@ -5569,13 +5970,13 @@
         <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G88" s="4">
-        <v>8.0999999999999989E-2</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="H88" s="4">
-        <v>8.0999999999999989E-2</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="I88" s="4">
         <v>0.01</v>
@@ -5587,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="4">
-        <v>-0.92900000000000005</v>
+        <v>-0.66500000000000004</v>
       </c>
       <c r="M88" s="4">
         <v>0</v>
@@ -5595,52 +5996,58 @@
       <c r="N88" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:14">
+      <c r="O88" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B89" s="2">
-        <v>41961</v>
+        <v>41963</v>
       </c>
       <c r="C89" s="3">
-        <v>0.4826388888888889</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D89" s="3">
-        <v>0.52430555555555558</v>
+        <v>0.46527777777777801</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G89" s="4">
-        <v>0.44500000000000001</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="H89" s="4">
-        <v>0.44500000000000001</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="I89" s="4">
         <v>0.01</v>
       </c>
-      <c r="J89" s="4">
-        <v>0</v>
+      <c r="J89" t="s">
+        <v>26</v>
       </c>
       <c r="K89" s="4">
         <v>0</v>
       </c>
       <c r="L89" s="4">
-        <v>-1.66</v>
+        <v>-0.66500000000000004</v>
       </c>
       <c r="M89" s="4">
         <v>0</v>
       </c>
       <c r="N89" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O89" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90" s="4" t="s">
         <v>13</v>
       </c>
@@ -5648,34 +6055,34 @@
         <v>41963</v>
       </c>
       <c r="C90" s="3">
-        <v>0.4236111111111111</v>
+        <v>0.47222222222222199</v>
       </c>
       <c r="D90" s="3">
         <v>0.51388888888888895</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G90" s="4">
-        <v>0</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="H90" s="4">
-        <v>0</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="I90" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K90" s="5">
-        <v>-0.125</v>
+        <v>0.01</v>
+      </c>
+      <c r="J90" t="s">
+        <v>26</v>
+      </c>
+      <c r="K90" s="4">
+        <v>0</v>
       </c>
       <c r="L90" s="4">
-        <v>0</v>
+        <v>-0.66500000000000004</v>
       </c>
       <c r="M90" s="4">
         <v>0</v>
@@ -5683,87 +6090,93 @@
       <c r="N90" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:14">
+      <c r="O90" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B91" s="2">
-        <v>41963</v>
+        <v>41956</v>
       </c>
       <c r="C91" s="3">
-        <v>0.4236111111111111</v>
+        <v>0.45</v>
       </c>
       <c r="D91" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.4916666666666667</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G91" s="4">
+        <v>-0.26500000000000001</v>
+      </c>
+      <c r="H91" s="4">
+        <v>-0.26500000000000001</v>
+      </c>
+      <c r="I91" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J91" t="s">
         <v>16</v>
       </c>
-      <c r="G91" s="4">
-        <v>0</v>
-      </c>
-      <c r="H91" s="4">
-        <v>0</v>
-      </c>
-      <c r="I91" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J91" s="4" t="s">
+      <c r="K91" s="4">
+        <v>0</v>
+      </c>
+      <c r="L91" s="4">
+        <v>-0.9</v>
+      </c>
+      <c r="M91" s="4">
+        <v>0</v>
+      </c>
+      <c r="N91" s="4">
+        <v>0</v>
+      </c>
+      <c r="O91" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" s="2">
+        <v>41956</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0.54236111111111118</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F92" t="s">
+        <v>23</v>
+      </c>
+      <c r="G92" s="4">
+        <v>-0.26500000000000001</v>
+      </c>
+      <c r="H92" s="4">
+        <v>-0.26500000000000001</v>
+      </c>
+      <c r="I92" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J92" t="s">
         <v>16</v>
       </c>
-      <c r="K91" s="5">
-        <v>-0.05</v>
-      </c>
-      <c r="L91" s="4">
-        <v>0</v>
-      </c>
-      <c r="M91" s="4">
-        <v>0</v>
-      </c>
-      <c r="N91" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
-      <c r="A92" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B92" s="2">
-        <v>41963</v>
-      </c>
-      <c r="C92" s="3">
-        <v>0.4236111111111111</v>
-      </c>
-      <c r="D92" s="3">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F92" t="s">
-        <v>25</v>
-      </c>
-      <c r="G92" s="4">
-        <v>0</v>
-      </c>
-      <c r="H92" s="4">
-        <v>0</v>
-      </c>
-      <c r="I92" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J92" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="K92" s="4">
-        <v>-0.2</v>
-      </c>
-      <c r="L92" s="5">
-        <v>-0.73</v>
+        <v>0</v>
+      </c>
+      <c r="L92" s="4">
+        <v>-0.9</v>
       </c>
       <c r="M92" s="4">
         <v>0</v>
@@ -5771,263 +6184,281 @@
       <c r="N92" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:14">
+      <c r="O92" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B93" s="2">
-        <v>41963</v>
+        <v>41957</v>
       </c>
       <c r="C93" s="3">
-        <v>0.4236111111111111</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="D93" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.48125000000000001</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F93" t="s">
+        <v>23</v>
+      </c>
+      <c r="G93" s="4">
+        <v>-0.26500000000000001</v>
+      </c>
+      <c r="H93" s="4">
+        <v>-0.26500000000000001</v>
+      </c>
+      <c r="I93" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J93" t="s">
+        <v>16</v>
+      </c>
+      <c r="K93" s="4">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>-0.89</v>
+      </c>
+      <c r="M93" s="4">
+        <v>0</v>
+      </c>
+      <c r="N93" s="4">
+        <v>0</v>
+      </c>
+      <c r="O93" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="2">
+        <v>41957</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0.52986111111111101</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F94" t="s">
+        <v>23</v>
+      </c>
+      <c r="G94" s="4">
+        <v>-0.26500000000000001</v>
+      </c>
+      <c r="H94" s="4">
+        <v>-0.26500000000000001</v>
+      </c>
+      <c r="I94" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J94" t="s">
+        <v>16</v>
+      </c>
+      <c r="K94" s="4">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>-0.89</v>
+      </c>
+      <c r="M94" s="4">
+        <v>0</v>
+      </c>
+      <c r="N94" s="4">
+        <v>0</v>
+      </c>
+      <c r="O94" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" s="2">
+        <v>41957</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0.57916666666666705</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F95" t="s">
+        <v>23</v>
+      </c>
+      <c r="G95" s="4">
+        <v>-0.26500000000000001</v>
+      </c>
+      <c r="H95" s="4">
+        <v>-0.26500000000000001</v>
+      </c>
+      <c r="I95" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J95" t="s">
+        <v>16</v>
+      </c>
+      <c r="K95" s="4">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>-0.89</v>
+      </c>
+      <c r="M95" s="4">
+        <v>0</v>
+      </c>
+      <c r="N95" s="4">
+        <v>0</v>
+      </c>
+      <c r="O95" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" s="2">
+        <v>41957</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0.594444444444444</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0.63611111111111096</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F96" t="s">
+        <v>23</v>
+      </c>
+      <c r="G96" s="4">
+        <v>-0.26500000000000001</v>
+      </c>
+      <c r="H96" s="4">
+        <v>-0.26500000000000001</v>
+      </c>
+      <c r="I96" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J96" t="s">
+        <v>16</v>
+      </c>
+      <c r="K96" s="4">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>-0.89</v>
+      </c>
+      <c r="M96" s="4">
+        <v>0</v>
+      </c>
+      <c r="N96" s="4">
+        <v>0</v>
+      </c>
+      <c r="O96" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" s="2">
+        <v>41957</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.64305555555555605</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0.68472222222222201</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F97" t="s">
+        <v>23</v>
+      </c>
+      <c r="G97" s="4">
+        <v>-0.26500000000000001</v>
+      </c>
+      <c r="H97" s="4">
+        <v>-0.26500000000000001</v>
+      </c>
+      <c r="I97" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J97" t="s">
+        <v>16</v>
+      </c>
+      <c r="K97" s="4">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>-0.89</v>
+      </c>
+      <c r="M97" s="4">
+        <v>0</v>
+      </c>
+      <c r="N97" s="4">
+        <v>0</v>
+      </c>
+      <c r="O97" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" s="2">
+        <v>41961</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0.27083333333333298</v>
+      </c>
+      <c r="D98" s="3">
+        <v>0.52430555555555602</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F98" t="s">
+        <v>23</v>
+      </c>
+      <c r="G98" s="4">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="H98" s="4">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="I98" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J98" t="s">
         <v>26</v>
       </c>
-      <c r="G93" s="4">
-        <v>0</v>
-      </c>
-      <c r="H93" s="4">
-        <v>0</v>
-      </c>
-      <c r="I93" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J93" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K93" s="4">
-        <v>-0.05</v>
-      </c>
-      <c r="L93" s="5">
-        <v>-0.73</v>
-      </c>
-      <c r="M93" s="4">
-        <v>0</v>
-      </c>
-      <c r="N93" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
-      <c r="A94" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B94" s="2">
-        <v>41963</v>
-      </c>
-      <c r="C94" s="3">
-        <v>0.4236111111111111</v>
-      </c>
-      <c r="D94" s="3">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F94" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="4">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="H94" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="I94" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J94" s="4">
-        <v>0</v>
-      </c>
-      <c r="K94" s="4">
-        <v>0</v>
-      </c>
-      <c r="L94" s="4">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="M94" s="4">
-        <v>0</v>
-      </c>
-      <c r="N94" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
-      <c r="A95" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B95" s="2">
-        <v>41963</v>
-      </c>
-      <c r="C95" s="3">
-        <v>0.4236111111111111</v>
-      </c>
-      <c r="D95" s="3">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F95" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="4">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="H95" s="4">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="I95" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J95" s="4">
-        <v>0</v>
-      </c>
-      <c r="K95" s="4">
-        <v>0</v>
-      </c>
-      <c r="L95" s="4">
-        <v>0</v>
-      </c>
-      <c r="M95" s="4">
-        <v>0</v>
-      </c>
-      <c r="N95" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
-      <c r="A96" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B96" s="2">
-        <v>41963</v>
-      </c>
-      <c r="C96" s="3">
-        <v>0.4236111111111111</v>
-      </c>
-      <c r="D96" s="3">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" s="4">
-        <v>1.776</v>
-      </c>
-      <c r="H96" s="4">
-        <v>1.7370000000000001</v>
-      </c>
-      <c r="I96" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J96" s="4">
-        <v>0</v>
-      </c>
-      <c r="K96" s="4">
-        <v>0</v>
-      </c>
-      <c r="L96" s="4">
-        <v>-0.748</v>
-      </c>
-      <c r="M96" s="4">
-        <v>0</v>
-      </c>
-      <c r="N96" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
-      <c r="A97" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B97" s="2">
-        <v>41963</v>
-      </c>
-      <c r="C97" s="3">
-        <v>0.4236111111111111</v>
-      </c>
-      <c r="D97" s="3">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" s="4">
-        <v>2.5950000000000002</v>
-      </c>
-      <c r="H97" s="4">
-        <v>2.569</v>
-      </c>
-      <c r="I97" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J97" s="4">
-        <v>0</v>
-      </c>
-      <c r="K97" s="4">
-        <v>0</v>
-      </c>
-      <c r="L97" s="4">
-        <v>0</v>
-      </c>
-      <c r="M97" s="4">
-        <v>0</v>
-      </c>
-      <c r="N97" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
-      <c r="A98" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B98" s="2">
-        <v>41963</v>
-      </c>
-      <c r="C98" s="3">
-        <v>0.4236111111111111</v>
-      </c>
-      <c r="D98" s="3">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F98" t="s">
-        <v>15</v>
-      </c>
-      <c r="G98" s="4">
-        <v>0</v>
-      </c>
-      <c r="H98" s="4">
-        <v>0</v>
-      </c>
-      <c r="I98" s="4">
-        <v>0</v>
-      </c>
-      <c r="J98" s="4">
-        <v>0</v>
-      </c>
       <c r="K98" s="4">
         <v>0</v>
       </c>
       <c r="L98" s="4">
-        <v>0</v>
+        <v>-0.92900000000000005</v>
       </c>
       <c r="M98" s="4">
         <v>0</v>
@@ -6035,8 +6466,11 @@
       <c r="N98" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:14">
+      <c r="O98" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" s="4" t="s">
         <v>13</v>
       </c>
@@ -6047,31 +6481,31 @@
         <v>0.42361111111111099</v>
       </c>
       <c r="D99" s="3">
-        <v>0.46527777777777773</v>
+        <v>0.46527777777777801</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F99" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G99" s="4">
-        <v>-0.155</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="H99" s="4">
-        <v>-0.155</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="I99" s="4">
         <v>0.01</v>
       </c>
       <c r="J99" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K99" s="4">
         <v>0</v>
       </c>
       <c r="L99" s="4">
-        <v>0.251</v>
+        <v>-0.92900000000000005</v>
       </c>
       <c r="M99" s="4">
         <v>0</v>
@@ -6079,8 +6513,11 @@
       <c r="N99" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:14">
+      <c r="O99" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" s="4" t="s">
         <v>13</v>
       </c>
@@ -6088,34 +6525,34 @@
         <v>41963</v>
       </c>
       <c r="C100" s="3">
-        <v>0.42361111111111099</v>
+        <v>0.47222222222222199</v>
       </c>
       <c r="D100" s="3">
-        <v>0.46527777777777773</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G100" s="4">
-        <v>-0.155</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="H100" s="4">
-        <v>-0.155</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="I100" s="4">
         <v>0.01</v>
       </c>
       <c r="J100" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K100" s="4">
         <v>0</v>
       </c>
       <c r="L100" s="4">
-        <v>8.2000000000000003E-2</v>
+        <v>-0.92900000000000005</v>
       </c>
       <c r="M100" s="4">
         <v>0</v>
@@ -6123,25 +6560,28 @@
       <c r="N100" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:14">
+      <c r="O100" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B101" s="2">
-        <v>41963</v>
+        <v>41956</v>
       </c>
       <c r="C101" s="3">
-        <v>0.42361111111111099</v>
+        <v>0.45</v>
       </c>
       <c r="D101" s="3">
-        <v>0.46527777777777801</v>
+        <v>0.4916666666666667</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F101" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G101" s="4">
         <v>-0.155</v>
@@ -6159,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="L101" s="4">
-        <v>-7.9000000000000001E-2</v>
+        <v>-0.74</v>
       </c>
       <c r="M101" s="4">
         <v>0</v>
@@ -6167,31 +6607,34 @@
       <c r="N101" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:14">
+      <c r="O101" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B102" s="2">
-        <v>41963</v>
+        <v>41956</v>
       </c>
       <c r="C102" s="3">
-        <v>0.42361111111111099</v>
+        <v>0.50069444444444444</v>
       </c>
       <c r="D102" s="3">
-        <v>0.46527777777777801</v>
+        <v>0.54236111111111118</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F102" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G102" s="4">
-        <v>-4.0000000000000036E-3</v>
+        <v>-0.155</v>
       </c>
       <c r="H102" s="4">
-        <v>-4.0000000000000036E-3</v>
+        <v>-0.155</v>
       </c>
       <c r="I102" s="4">
         <v>0.01</v>
@@ -6203,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="L102" s="4">
-        <v>-7.9000000000000001E-2</v>
+        <v>-0.74</v>
       </c>
       <c r="M102" s="4">
         <v>0</v>
@@ -6211,43 +6654,46 @@
       <c r="N102" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:14">
+      <c r="O102" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B103" s="2">
-        <v>41963</v>
+        <v>41957</v>
       </c>
       <c r="C103" s="3">
-        <v>0.42361111111111099</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="D103" s="3">
-        <v>0.46527777777777801</v>
+        <v>0.48125000000000001</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G103" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>-0.155</v>
       </c>
       <c r="H103" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>-0.155</v>
       </c>
       <c r="I103" s="4">
         <v>0.01</v>
       </c>
       <c r="J103" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="K103" s="4">
         <v>0</v>
       </c>
-      <c r="L103" s="4">
-        <v>-0.496</v>
+      <c r="L103">
+        <v>-0.73</v>
       </c>
       <c r="M103" s="4">
         <v>0</v>
@@ -6255,43 +6701,46 @@
       <c r="N103" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:14">
+      <c r="O103" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B104" s="2">
-        <v>41963</v>
+        <v>41957</v>
       </c>
       <c r="C104" s="3">
-        <v>0.42361111111111099</v>
+        <v>0.48819444444444443</v>
       </c>
       <c r="D104" s="3">
-        <v>0.46527777777777801</v>
+        <v>0.52986111111111101</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G104" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>-0.155</v>
       </c>
       <c r="H104" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>-0.155</v>
       </c>
       <c r="I104" s="4">
         <v>0.01</v>
       </c>
       <c r="J104" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="K104" s="4">
         <v>0</v>
       </c>
-      <c r="L104" s="4">
-        <v>-0.66500000000000004</v>
+      <c r="L104">
+        <v>-0.73</v>
       </c>
       <c r="M104" s="4">
         <v>0</v>
@@ -6299,43 +6748,46 @@
       <c r="N104" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:14">
+      <c r="O104" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B105" s="2">
-        <v>41963</v>
+        <v>41957</v>
       </c>
       <c r="C105" s="3">
-        <v>0.42361111111111099</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="D105" s="3">
-        <v>0.46527777777777801</v>
+        <v>0.57916666666666705</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F105" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G105" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>-0.155</v>
       </c>
       <c r="H105" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>-0.155</v>
       </c>
       <c r="I105" s="4">
         <v>0.01</v>
       </c>
       <c r="J105" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="K105" s="4">
         <v>0</v>
       </c>
-      <c r="L105" s="4">
-        <v>-0.92900000000000005</v>
+      <c r="L105">
+        <v>-0.73</v>
       </c>
       <c r="M105" s="4">
         <v>0</v>
@@ -6343,19 +6795,22 @@
       <c r="N105" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:14">
+      <c r="O105" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B106" s="2">
-        <v>41963</v>
+        <v>41957</v>
       </c>
       <c r="C106" s="3">
-        <v>0.42361111111111099</v>
+        <v>0.594444444444444</v>
       </c>
       <c r="D106" s="3">
-        <v>0.46527777777777801</v>
+        <v>0.63611111111111096</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>34</v>
@@ -6364,22 +6819,22 @@
         <v>24</v>
       </c>
       <c r="G106" s="4">
-        <v>8.0999999999999989E-2</v>
+        <v>-0.155</v>
       </c>
       <c r="H106" s="4">
-        <v>8.0999999999999989E-2</v>
+        <v>-0.155</v>
       </c>
       <c r="I106" s="4">
         <v>0.01</v>
       </c>
       <c r="J106" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="K106" s="4">
         <v>0</v>
       </c>
-      <c r="L106" s="4">
-        <v>-0.92900000000000005</v>
+      <c r="L106">
+        <v>-0.73</v>
       </c>
       <c r="M106" s="4">
         <v>0</v>
@@ -6387,25 +6842,28 @@
       <c r="N106" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:14">
+      <c r="O106" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B107" s="2">
-        <v>41963</v>
+        <v>41957</v>
       </c>
       <c r="C107" s="3">
-        <v>0.47222222222222227</v>
+        <v>0.64305555555555605</v>
       </c>
       <c r="D107" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.68472222222222201</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G107" s="4">
         <v>-0.155</v>
@@ -6422,61 +6880,67 @@
       <c r="K107" s="4">
         <v>0</v>
       </c>
-      <c r="L107" s="4">
-        <v>0.251</v>
+      <c r="L107">
+        <v>-0.73</v>
       </c>
       <c r="M107" s="4">
         <v>0</v>
       </c>
       <c r="N107" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O107" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B108" s="2">
-        <v>41963</v>
+        <v>41961</v>
       </c>
       <c r="C108" s="3">
-        <v>0.47222222222222227</v>
+        <v>0.27083333333333298</v>
       </c>
       <c r="D108" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.52430555555555602</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G108" s="4">
-        <v>-0.155</v>
+        <v>8.0999999999999989E-2</v>
       </c>
       <c r="H108" s="4">
-        <v>-0.155</v>
+        <v>8.0999999999999989E-2</v>
       </c>
       <c r="I108" s="4">
         <v>0.01</v>
       </c>
       <c r="J108" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K108" s="4">
         <v>0</v>
       </c>
       <c r="L108" s="4">
-        <v>8.2000000000000003E-2</v>
+        <v>-0.92900000000000005</v>
       </c>
       <c r="M108" s="4">
         <v>0</v>
       </c>
       <c r="N108" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O108" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" s="4" t="s">
         <v>13</v>
       </c>
@@ -6484,43 +6948,46 @@
         <v>41963</v>
       </c>
       <c r="C109" s="3">
-        <v>0.47222222222222199</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D109" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.46527777777777801</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F109" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G109" s="4">
-        <v>-0.155</v>
+        <v>8.0999999999999989E-2</v>
       </c>
       <c r="H109" s="4">
-        <v>-0.155</v>
+        <v>8.0999999999999989E-2</v>
       </c>
       <c r="I109" s="4">
         <v>0.01</v>
       </c>
       <c r="J109" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K109" s="4">
         <v>0</v>
       </c>
       <c r="L109" s="4">
-        <v>-7.9000000000000001E-2</v>
+        <v>-0.92900000000000005</v>
       </c>
       <c r="M109" s="4">
         <v>0</v>
       </c>
       <c r="N109" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O109" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110" s="4" t="s">
         <v>13</v>
       </c>
@@ -6537,25 +7004,25 @@
         <v>34</v>
       </c>
       <c r="F110" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G110" s="4">
-        <v>-4.0000000000000036E-3</v>
+        <v>8.0999999999999989E-2</v>
       </c>
       <c r="H110" s="4">
-        <v>-4.0000000000000036E-3</v>
+        <v>8.0999999999999989E-2</v>
       </c>
       <c r="I110" s="4">
         <v>0.01</v>
       </c>
       <c r="J110" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K110" s="4">
         <v>0</v>
       </c>
       <c r="L110" s="4">
-        <v>-7.9000000000000001E-2</v>
+        <v>-0.92900000000000005</v>
       </c>
       <c r="M110" s="4">
         <v>0</v>
@@ -6563,43 +7030,46 @@
       <c r="N110" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:14">
+      <c r="O110" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B111" s="2">
-        <v>41963</v>
+        <v>41956</v>
       </c>
       <c r="C111" s="3">
-        <v>0.47222222222222199</v>
+        <v>0.45</v>
       </c>
       <c r="D111" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.54236111111111118</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G111" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="H111" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="I111" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J111" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="J111" s="4">
+        <v>0</v>
       </c>
       <c r="K111" s="4">
         <v>0</v>
       </c>
       <c r="L111" s="4">
-        <v>-0.496</v>
+        <v>0</v>
       </c>
       <c r="M111" s="4">
         <v>0</v>
@@ -6607,43 +7077,46 @@
       <c r="N111" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:14">
+      <c r="O111">
+        <v>43282163</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B112" s="2">
-        <v>41963</v>
+        <v>41957</v>
       </c>
       <c r="C112" s="3">
-        <v>0.47222222222222199</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="D112" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.68472222222222223</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F112" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G112" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="H112" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="I112" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J112" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="J112" s="4">
+        <v>0</v>
       </c>
       <c r="K112" s="4">
         <v>0</v>
       </c>
       <c r="L112" s="4">
-        <v>-0.66500000000000004</v>
+        <v>0</v>
       </c>
       <c r="M112" s="4">
         <v>0</v>
@@ -6651,43 +7124,46 @@
       <c r="N112" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:14">
+      <c r="O112">
+        <v>43282163</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B113" s="2">
-        <v>41963</v>
+        <v>41961</v>
       </c>
       <c r="C113" s="3">
-        <v>0.47222222222222199</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D113" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F113" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G113" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="H113" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="I113" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J113" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="J113" s="4">
+        <v>0</v>
       </c>
       <c r="K113" s="4">
         <v>0</v>
       </c>
       <c r="L113" s="4">
-        <v>-0.92900000000000005</v>
+        <v>0</v>
       </c>
       <c r="M113" s="4">
         <v>0</v>
@@ -6695,8 +7171,11 @@
       <c r="N113" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:14">
+      <c r="O113">
+        <v>43282163</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114" s="4" t="s">
         <v>13</v>
       </c>
@@ -6704,34 +7183,34 @@
         <v>41963</v>
       </c>
       <c r="C114" s="3">
-        <v>0.47222222222222199</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D114" s="3">
         <v>0.51388888888888895</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F114" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G114" s="4">
-        <v>8.0999999999999989E-2</v>
+        <v>0</v>
       </c>
       <c r="H114" s="4">
-        <v>8.0999999999999989E-2</v>
+        <v>0</v>
       </c>
       <c r="I114" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J114" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="J114" s="4">
+        <v>0</v>
       </c>
       <c r="K114" s="4">
         <v>0</v>
       </c>
       <c r="L114" s="4">
-        <v>-0.92900000000000005</v>
+        <v>0</v>
       </c>
       <c r="M114" s="4">
         <v>0</v>
@@ -6739,12 +7218,15 @@
       <c r="N114" s="4">
         <v>0</v>
       </c>
+      <c r="O114">
+        <v>43282163</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K267">
-    <sortCondition ref="B2:B267"/>
-    <sortCondition ref="C2:C267"/>
-    <sortCondition ref="F2:F267"/>
+  <sortState ref="A2:O114">
+    <sortCondition ref="F2:F114"/>
+    <sortCondition ref="B2:B114"/>
+    <sortCondition ref="C2:C114"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
